--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1896607.244164848</v>
+        <v>1894719.662648447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>299.7866465391467</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>260.579793853716</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.94171930402188</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>99.66075074687603</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>106.3355174722014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>301.0462453066053</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>147.6979659320285</v>
       </c>
       <c r="X7" t="n">
-        <v>8.389005322401673</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>236.2827329914052</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.77238941128281</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151917</v>
+        <v>152.5925687411131</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>55.51848634874972</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.282411374438</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>152.7766621233889</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>21.12833712222965</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>234.8031540381806</v>
+        <v>196.3376621643666</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,7 +2533,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>20.82998177290648</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.7438101404419</v>
       </c>
       <c r="W28" t="n">
-        <v>160.4555852138044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>184.6773487260621</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>35.13434060547016</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898744</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
         <v>80.4835828885717</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.455337753612</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C2" t="n">
-        <v>1167.455337753612</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>317.154894803916</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.455337753612</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4425,7 +4425,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="X7" t="n">
-        <v>719.6552414565338</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.881273373639</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>846.9187564332271</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D8" t="n">
-        <v>488.6530578264766</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E8" t="n">
-        <v>102.8648052282324</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>95.91930447902892</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>81.99590041761982</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>81.99590041761982</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.481113437761</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5048,16 +5048,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.698370483031</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1120.996947528102</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>866.312459322215</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5373,7 +5373,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.8631874464246</v>
+        <v>471.5883316929522</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>471.5883316929522</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>321.4716922806165</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1016.928822313625</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1016.928822313625</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1016.928822313625</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>727.5116522766643</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X16" t="n">
-        <v>727.5116522766643</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.5116522766643</v>
+        <v>471.5883316929522</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,22 +5534,22 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.4500457733749</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>399.4500457733749</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>399.4500457733749</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>251.5369521909817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>251.5369521909817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227919</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V19" t="n">
-        <v>620.242624916905</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W19" t="n">
-        <v>620.242624916905</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X19" t="n">
-        <v>620.242624916905</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.4500457733749</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,13 +5829,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>359.169691290395</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550793</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>494.14282528621</v>
+        <v>989.6002861621822</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>761.6107352641648</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>540.8181561206346</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>496.6650364395584</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,7 +6248,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.6134626728256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.6134626728256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1113.054506646595</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.054506646595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.2619275030653</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.9132763877634</v>
+        <v>637.6995017749892</v>
       </c>
       <c r="C31" t="n">
-        <v>451.9132763877634</v>
+        <v>637.6995017749892</v>
       </c>
       <c r="D31" t="n">
-        <v>357.5575022567985</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>265.4052739557761</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1148.717580171028</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>915.0612754154381</v>
+        <v>1100.847500802664</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8325897987916</v>
+        <v>928.6188151860175</v>
       </c>
       <c r="Y31" t="n">
-        <v>577.8008759366323</v>
+        <v>763.5871013238582</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,16 +6783,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,16 +6920,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,25 +6938,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,25 +7093,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,13 +7120,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7196,10 +7196,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506717</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,49 +7394,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,13 +7810,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.7396287231151</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711656</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338568</v>
+        <v>133.6447836574642</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>90.91547629781945</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>52.26514968395122</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>13.71690633998867</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>231.0093062015983</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>51.71984429841041</v>
+        <v>90.18533617222438</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>51.71984429841025</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>197.7546715791883</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338608</v>
       </c>
       <c r="W28" t="n">
-        <v>126.0674131227866</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>12.25703796920875</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>196.1854011025638</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.014743972193151e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="8">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
@@ -26326,7 +26326,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721362</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26335,25 +26335,25 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>508527.6716815879</v>
+        <v>508527.6716815878</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="M2" t="n">
+        <v>513151.1061651765</v>
+      </c>
+      <c r="N2" t="n">
         <v>513151.1061651764</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>513151.1061651765</v>
       </c>
-      <c r="O2" t="n">
-        <v>513151.1061651764</v>
-      </c>
       <c r="P2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26427,37 +26427,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.73165600754</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.73165600754</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007497</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007463</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="O4" t="n">
-        <v>30335.51889732793</v>
-      </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26491,10 +26491,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.899828698</v>
+        <v>-307592.8998286978</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858465</v>
+        <v>282374.9793858466</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.979385847</v>
+        <v>282374.9793858469</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094842</v>
+        <v>-136375.2285354564</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674119</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674121</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414394</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748189</v>
+        <v>212361.5887488468</v>
       </c>
       <c r="K6" t="n">
-        <v>341655.5036783153</v>
+        <v>341637.009940381</v>
       </c>
       <c r="L6" t="n">
-        <v>374757.5746469565</v>
+        <v>374757.5746469563</v>
       </c>
       <c r="M6" t="n">
-        <v>250299.4662139859</v>
+        <v>250299.466213986</v>
       </c>
       <c r="N6" t="n">
+        <v>385100.4814478231</v>
+      </c>
+      <c r="O6" t="n">
         <v>385100.4814478232</v>
       </c>
-      <c r="O6" t="n">
-        <v>385100.481447823</v>
-      </c>
       <c r="P6" t="n">
-        <v>340937.8761449773</v>
+        <v>340937.8761449775</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.89639508153624</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>153.204376167079</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>154.2291695377733</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>186.6211234951017</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>258.9373742988062</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>48.19472341080774</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>138.8250324045625</v>
       </c>
       <c r="X7" t="n">
-        <v>217.3206500666355</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>145.6476370808566</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>124.1589268335784</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.7526615081892</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
